--- a/ig/TLSVObservation/all-profiles.xlsx
+++ b/ig/TLSVObservation/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-21T15:44:28+00:00</t>
+    <t>2024-01-09T11:57:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -667,7 +667,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group|Device|Location)
+    <t xml:space="preserve">Reference(Patient)
 </t>
   </si>
   <si>
@@ -1123,7 +1123,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(QuestionnaireResponse|Observation)
 </t>
   </si>
   <si>

--- a/ig/TLSVObservation/all-profiles.xlsx
+++ b/ig/TLSVObservation/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-09T11:57:44+00:00</t>
+    <t>2024-02-22T09:02:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/TLSVObservation/all-profiles.xlsx
+++ b/ig/TLSVObservation/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T09:02:06+00:00</t>
+    <t>2024-02-22T09:02:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/TLSVObservation/all-profiles.xlsx
+++ b/ig/TLSVObservation/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T09:05:58+00:00</t>
+    <t>2024-02-22T10:07:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
